--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adam17-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adam17-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.997495</v>
+        <v>15.9868135</v>
       </c>
       <c r="H2">
-        <v>41.99499</v>
+        <v>31.973627</v>
       </c>
       <c r="I2">
-        <v>0.1182619877338827</v>
+        <v>0.07937441194885332</v>
       </c>
       <c r="J2">
-        <v>0.08414285444023263</v>
+        <v>0.05566239160619865</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N2">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O2">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P2">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q2">
-        <v>3455.710414437398</v>
+        <v>3222.234273030099</v>
       </c>
       <c r="R2">
-        <v>13822.84165774959</v>
+        <v>12888.9370921204</v>
       </c>
       <c r="S2">
-        <v>0.02744583379109282</v>
+        <v>0.02234136207008106</v>
       </c>
       <c r="T2">
-        <v>0.01519281721745759</v>
+        <v>0.01264358421681327</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.997495</v>
+        <v>15.9868135</v>
       </c>
       <c r="H3">
-        <v>41.99499</v>
+        <v>31.973627</v>
       </c>
       <c r="I3">
-        <v>0.1182619877338827</v>
+        <v>0.07937441194885332</v>
       </c>
       <c r="J3">
-        <v>0.08414285444023263</v>
+        <v>0.05566239160619865</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P3">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q3">
-        <v>2493.75338335836</v>
+        <v>1898.663162188828</v>
       </c>
       <c r="R3">
-        <v>14962.52030015016</v>
+        <v>11391.97897313297</v>
       </c>
       <c r="S3">
-        <v>0.01980580912963209</v>
+        <v>0.01316438146990978</v>
       </c>
       <c r="T3">
-        <v>0.01644544889257518</v>
+        <v>0.01117512208442915</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.997495</v>
+        <v>15.9868135</v>
       </c>
       <c r="H4">
-        <v>41.99499</v>
+        <v>31.973627</v>
       </c>
       <c r="I4">
-        <v>0.1182619877338827</v>
+        <v>0.07937441194885332</v>
       </c>
       <c r="J4">
-        <v>0.08414285444023263</v>
+        <v>0.05566239160619865</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N4">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O4">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P4">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q4">
-        <v>1774.959344447715</v>
+        <v>1240.783559664125</v>
       </c>
       <c r="R4">
-        <v>10649.75606668629</v>
+        <v>7444.701357984752</v>
       </c>
       <c r="S4">
-        <v>0.01409702588218465</v>
+        <v>0.008602973095122715</v>
       </c>
       <c r="T4">
-        <v>0.01170524855437117</v>
+        <v>0.007302984560786548</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.997495</v>
+        <v>15.9868135</v>
       </c>
       <c r="H5">
-        <v>41.99499</v>
+        <v>31.973627</v>
       </c>
       <c r="I5">
-        <v>0.1182619877338827</v>
+        <v>0.07937441194885332</v>
       </c>
       <c r="J5">
-        <v>0.08414285444023263</v>
+        <v>0.05566239160619865</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N5">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O5">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P5">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q5">
-        <v>2937.723084297428</v>
+        <v>2750.36726194871</v>
       </c>
       <c r="R5">
-        <v>11750.89233718971</v>
+        <v>11001.46904779484</v>
       </c>
       <c r="S5">
-        <v>0.0233318912253272</v>
+        <v>0.0190696720406709</v>
       </c>
       <c r="T5">
-        <v>0.01291551794061508</v>
+        <v>0.01079204587781684</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.997495</v>
+        <v>15.9868135</v>
       </c>
       <c r="H6">
-        <v>41.99499</v>
+        <v>31.973627</v>
       </c>
       <c r="I6">
-        <v>0.1182619877338827</v>
+        <v>0.07937441194885332</v>
       </c>
       <c r="J6">
-        <v>0.08414285444023263</v>
+        <v>0.05566239160619865</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N6">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O6">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P6">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q6">
-        <v>2556.09402212358</v>
+        <v>956.8470087654531</v>
       </c>
       <c r="R6">
-        <v>15336.56413274148</v>
+        <v>5741.082052592718</v>
       </c>
       <c r="S6">
-        <v>0.02030092897614253</v>
+        <v>0.006634298954433387</v>
       </c>
       <c r="T6">
-        <v>0.01685656403956026</v>
+        <v>0.005631795229411704</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.997495</v>
+        <v>15.9868135</v>
       </c>
       <c r="H7">
-        <v>41.99499</v>
+        <v>31.973627</v>
       </c>
       <c r="I7">
-        <v>0.1182619877338827</v>
+        <v>0.07937441194885332</v>
       </c>
       <c r="J7">
-        <v>0.08414285444023263</v>
+        <v>0.05566239160619865</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N7">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O7">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P7">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q7">
-        <v>1672.150247567325</v>
+        <v>1379.061657571572</v>
       </c>
       <c r="R7">
-        <v>10032.90148540395</v>
+        <v>8274.369945429433</v>
       </c>
       <c r="S7">
-        <v>0.0132804987295034</v>
+        <v>0.009561724318635487</v>
       </c>
       <c r="T7">
-        <v>0.01102725779565335</v>
+        <v>0.008116859636941146</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>53.47854</v>
       </c>
       <c r="I8">
-        <v>0.100400523038676</v>
+        <v>0.08850685315084274</v>
       </c>
       <c r="J8">
-        <v>0.1071517580286638</v>
+        <v>0.09309996129021456</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N8">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O8">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P8">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q8">
-        <v>2933.78404784169</v>
+        <v>3592.96917757899</v>
       </c>
       <c r="R8">
-        <v>17602.70428705014</v>
+        <v>21557.81506547394</v>
       </c>
       <c r="S8">
-        <v>0.02330060673476064</v>
+        <v>0.02491185261568465</v>
       </c>
       <c r="T8">
-        <v>0.01934730031550179</v>
+        <v>0.02114744205536072</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>53.47854</v>
       </c>
       <c r="I9">
-        <v>0.100400523038676</v>
+        <v>0.08850685315084274</v>
       </c>
       <c r="J9">
-        <v>0.1071517580286638</v>
+        <v>0.09309996129021456</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P9">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q9">
-        <v>2117.114288507039</v>
+        <v>2117.11428850704</v>
       </c>
       <c r="R9">
         <v>19054.02859656336</v>
       </c>
       <c r="S9">
-        <v>0.0168144780408551</v>
+        <v>0.01467901240427158</v>
       </c>
       <c r="T9">
-        <v>0.02094246471828038</v>
+        <v>0.01869131748478293</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>53.47854</v>
       </c>
       <c r="I10">
-        <v>0.100400523038676</v>
+        <v>0.08850685315084274</v>
       </c>
       <c r="J10">
-        <v>0.1071517580286638</v>
+        <v>0.09309996129021456</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N10">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O10">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P10">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q10">
-        <v>1506.88188123426</v>
+        <v>1383.54219717478</v>
       </c>
       <c r="R10">
-        <v>13561.93693110834</v>
+        <v>12451.87977457302</v>
       </c>
       <c r="S10">
-        <v>0.01196790954542351</v>
+        <v>0.009592790141000559</v>
       </c>
       <c r="T10">
-        <v>0.0149060543418365</v>
+        <v>0.01221484669078694</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>53.47854</v>
       </c>
       <c r="I11">
-        <v>0.100400523038676</v>
+        <v>0.08850685315084274</v>
       </c>
       <c r="J11">
-        <v>0.1071517580286638</v>
+        <v>0.09309996129021456</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N11">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O11">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P11">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q11">
-        <v>2494.02990646461</v>
+        <v>3066.81139913247</v>
       </c>
       <c r="R11">
-        <v>14964.17943878766</v>
+        <v>18400.86839479482</v>
       </c>
       <c r="S11">
-        <v>0.01980800532268745</v>
+        <v>0.02126373753831349</v>
       </c>
       <c r="T11">
-        <v>0.01644727246768963</v>
+        <v>0.01805059079342682</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>53.47854</v>
       </c>
       <c r="I12">
-        <v>0.100400523038676</v>
+        <v>0.08850685315084274</v>
       </c>
       <c r="J12">
-        <v>0.1071517580286638</v>
+        <v>0.09309996129021456</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N12">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O12">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P12">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q12">
-        <v>2170.039432575119</v>
+        <v>1066.93726118182</v>
       </c>
       <c r="R12">
-        <v>19530.35489317608</v>
+        <v>9602.43535063638</v>
       </c>
       <c r="S12">
-        <v>0.01723481844362542</v>
+        <v>0.007397609744777554</v>
       </c>
       <c r="T12">
-        <v>0.02146599949784926</v>
+        <v>0.009419644085042433</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>53.47854</v>
       </c>
       <c r="I13">
-        <v>0.100400523038676</v>
+        <v>0.08850685315084274</v>
       </c>
       <c r="J13">
-        <v>0.1071517580286638</v>
+        <v>0.09309996129021456</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N13">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O13">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P13">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q13">
-        <v>1419.6003523363</v>
+        <v>1537.72991340452</v>
       </c>
       <c r="R13">
-        <v>12776.4031710267</v>
+        <v>13839.56922064068</v>
       </c>
       <c r="S13">
-        <v>0.0112747049513239</v>
+        <v>0.01066185070679492</v>
       </c>
       <c r="T13">
-        <v>0.01404266668750628</v>
+        <v>0.01357612018081472</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>46.51111466666666</v>
+        <v>54.866852</v>
       </c>
       <c r="H14">
-        <v>139.533344</v>
+        <v>164.600556</v>
       </c>
       <c r="I14">
-        <v>0.2619596705320584</v>
+        <v>0.2724135183652932</v>
       </c>
       <c r="J14">
-        <v>0.2795746314917781</v>
+        <v>0.2865505563904286</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N14">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O14">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P14">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q14">
-        <v>7654.672299752517</v>
+        <v>11058.72980676669</v>
       </c>
       <c r="R14">
-        <v>45928.03379851511</v>
+        <v>66352.37884060013</v>
       </c>
       <c r="S14">
-        <v>0.06079469587109284</v>
+        <v>0.07667570564813</v>
       </c>
       <c r="T14">
-        <v>0.05047994037223566</v>
+        <v>0.06508929975070669</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>46.51111466666666</v>
+        <v>54.866852</v>
       </c>
       <c r="H15">
-        <v>139.533344</v>
+        <v>164.600556</v>
       </c>
       <c r="I15">
-        <v>0.2619596705320584</v>
+        <v>0.2724135183652932</v>
       </c>
       <c r="J15">
-        <v>0.2795746314917781</v>
+        <v>0.2865505563904286</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P15">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q15">
-        <v>5523.861277917609</v>
+        <v>6516.224807255456</v>
       </c>
       <c r="R15">
-        <v>49714.75150125848</v>
+        <v>58646.0232652991</v>
       </c>
       <c r="S15">
-        <v>0.04387143606865636</v>
+        <v>0.04518024619359463</v>
       </c>
       <c r="T15">
-        <v>0.05464195794693871</v>
+        <v>0.05752964180338116</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>46.51111466666666</v>
+        <v>54.866852</v>
       </c>
       <c r="H16">
-        <v>139.533344</v>
+        <v>164.600556</v>
       </c>
       <c r="I16">
-        <v>0.2619596705320584</v>
+        <v>0.2724135183652932</v>
       </c>
       <c r="J16">
-        <v>0.2795746314917781</v>
+        <v>0.2865505563904286</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N16">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O16">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P16">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q16">
-        <v>3931.675545024736</v>
+        <v>4258.377564242225</v>
       </c>
       <c r="R16">
-        <v>35385.07990522262</v>
+        <v>38325.39807818003</v>
       </c>
       <c r="S16">
-        <v>0.03122602897465903</v>
+        <v>0.02952546181702063</v>
       </c>
       <c r="T16">
-        <v>0.0388920791061642</v>
+        <v>0.03759583856923338</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>46.51111466666666</v>
+        <v>54.866852</v>
       </c>
       <c r="H17">
-        <v>139.533344</v>
+        <v>164.600556</v>
       </c>
       <c r="I17">
-        <v>0.2619596705320584</v>
+        <v>0.2724135183652932</v>
       </c>
       <c r="J17">
-        <v>0.2795746314917781</v>
+        <v>0.2865505563904286</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N17">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O17">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P17">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q17">
-        <v>6507.289332973829</v>
+        <v>9439.279034998757</v>
       </c>
       <c r="R17">
-        <v>39043.73599784297</v>
+        <v>56635.67420999255</v>
       </c>
       <c r="S17">
-        <v>0.05168198721663642</v>
+        <v>0.06544724335115489</v>
       </c>
       <c r="T17">
-        <v>0.04291334294271806</v>
+        <v>0.05555756160745106</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>46.51111466666666</v>
+        <v>54.866852</v>
       </c>
       <c r="H18">
-        <v>139.533344</v>
+        <v>164.600556</v>
       </c>
       <c r="I18">
-        <v>0.2619596705320584</v>
+        <v>0.2724135183652932</v>
       </c>
       <c r="J18">
-        <v>0.2795746314917781</v>
+        <v>0.2865505563904286</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N18">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O18">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P18">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q18">
-        <v>5661.950730873898</v>
+        <v>3283.905402197681</v>
       </c>
       <c r="R18">
-        <v>50957.55657786509</v>
+        <v>29555.14861977913</v>
       </c>
       <c r="S18">
-        <v>0.0449681657478295</v>
+        <v>0.02276895885828976</v>
       </c>
       <c r="T18">
-        <v>0.05600793687032647</v>
+        <v>0.0289925389459042</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>46.51111466666666</v>
+        <v>54.866852</v>
       </c>
       <c r="H19">
-        <v>139.533344</v>
+        <v>164.600556</v>
       </c>
       <c r="I19">
-        <v>0.2619596705320584</v>
+        <v>0.2724135183652932</v>
       </c>
       <c r="J19">
-        <v>0.2795746314917781</v>
+        <v>0.2865505563904286</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N19">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O19">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P19">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q19">
-        <v>3703.945251778791</v>
+        <v>4732.948930995794</v>
       </c>
       <c r="R19">
-        <v>33335.50726600912</v>
+        <v>42596.54037896215</v>
       </c>
       <c r="S19">
-        <v>0.02941735665318427</v>
+        <v>0.03281590249710326</v>
       </c>
       <c r="T19">
-        <v>0.03663937425339499</v>
+        <v>0.04178567571375218</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.562933</v>
+        <v>13.823038</v>
       </c>
       <c r="H20">
-        <v>25.125866</v>
+        <v>27.646076</v>
       </c>
       <c r="I20">
-        <v>0.07075688925500828</v>
+        <v>0.06863128243765736</v>
       </c>
       <c r="J20">
-        <v>0.05034319773674883</v>
+        <v>0.04812862515368463</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N20">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O20">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P20">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q20">
-        <v>2067.573222614376</v>
+        <v>2786.112867395209</v>
       </c>
       <c r="R20">
-        <v>8270.292890457506</v>
+        <v>11144.45146958084</v>
       </c>
       <c r="S20">
-        <v>0.01642101455657615</v>
+        <v>0.01931751420422145</v>
       </c>
       <c r="T20">
-        <v>0.009089957863267316</v>
+        <v>0.01093230649655168</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.562933</v>
+        <v>13.823038</v>
       </c>
       <c r="H21">
-        <v>25.125866</v>
+        <v>27.646076</v>
       </c>
       <c r="I21">
-        <v>0.07075688925500828</v>
+        <v>0.06863128243765736</v>
       </c>
       <c r="J21">
-        <v>0.05034319773674883</v>
+        <v>0.04812862515368463</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P21">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q21">
-        <v>1492.028295454024</v>
+        <v>1641.683818988464</v>
       </c>
       <c r="R21">
-        <v>8952.169772724143</v>
+        <v>9850.102913930785</v>
       </c>
       <c r="S21">
-        <v>0.01184993986693919</v>
+        <v>0.011382615134971</v>
       </c>
       <c r="T21">
-        <v>0.009839415253693175</v>
+        <v>0.009662597066495039</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>12.562933</v>
+        <v>13.823038</v>
       </c>
       <c r="H22">
-        <v>25.125866</v>
+        <v>27.646076</v>
       </c>
       <c r="I22">
-        <v>0.07075688925500828</v>
+        <v>0.06863128243765736</v>
       </c>
       <c r="J22">
-        <v>0.05034319773674883</v>
+        <v>0.04812862515368463</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N22">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O22">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P22">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q22">
-        <v>1061.969312149881</v>
+        <v>1072.846586657965</v>
       </c>
       <c r="R22">
-        <v>6371.815872899286</v>
+        <v>6437.079519947789</v>
       </c>
       <c r="S22">
-        <v>0.008434339032210827</v>
+        <v>0.007438582054319887</v>
       </c>
       <c r="T22">
-        <v>0.007003323650602694</v>
+        <v>0.00631454373926147</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>12.562933</v>
+        <v>13.823038</v>
       </c>
       <c r="H23">
-        <v>25.125866</v>
+        <v>27.646076</v>
       </c>
       <c r="I23">
-        <v>0.07075688925500828</v>
+        <v>0.06863128243765736</v>
       </c>
       <c r="J23">
-        <v>0.05034319773674883</v>
+        <v>0.04812862515368463</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N23">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O23">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P23">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q23">
-        <v>1757.658153059778</v>
+        <v>2378.111884264677</v>
       </c>
       <c r="R23">
-        <v>7030.632612239114</v>
+        <v>9512.447537058708</v>
       </c>
       <c r="S23">
-        <v>0.01395961690797276</v>
+        <v>0.01648863929423655</v>
       </c>
       <c r="T23">
-        <v>0.007727435417807945</v>
+        <v>0.009331369272982734</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>12.562933</v>
+        <v>13.823038</v>
       </c>
       <c r="H24">
-        <v>25.125866</v>
+        <v>27.646076</v>
       </c>
       <c r="I24">
-        <v>0.07075688925500828</v>
+        <v>0.06863128243765736</v>
       </c>
       <c r="J24">
-        <v>0.05034319773674883</v>
+        <v>0.04812862515368463</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N24">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O24">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P24">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q24">
-        <v>1529.327090761972</v>
+        <v>827.3401426964286</v>
       </c>
       <c r="R24">
-        <v>9175.96254457183</v>
+        <v>4964.040856178572</v>
       </c>
       <c r="S24">
-        <v>0.01214617317756415</v>
+        <v>0.005736363068881299</v>
       </c>
       <c r="T24">
-        <v>0.01008538802553376</v>
+        <v>0.004869545733074118</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>12.562933</v>
+        <v>13.823038</v>
       </c>
       <c r="H25">
-        <v>25.125866</v>
+        <v>27.646076</v>
       </c>
       <c r="I25">
-        <v>0.07075688925500828</v>
+        <v>0.06863128243765736</v>
       </c>
       <c r="J25">
-        <v>0.05034319773674883</v>
+        <v>0.04812862515368463</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N25">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O25">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P25">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q25">
-        <v>1000.457984446322</v>
+        <v>1192.409087461665</v>
       </c>
       <c r="R25">
-        <v>6002.747906677931</v>
+        <v>7154.454524769992</v>
       </c>
       <c r="S25">
-        <v>0.0079458057137452</v>
+        <v>0.008267568681027175</v>
       </c>
       <c r="T25">
-        <v>0.006597677525843949</v>
+        <v>0.007018262845319592</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>14.25188766666667</v>
+        <v>61.450695</v>
       </c>
       <c r="H26">
-        <v>42.755663</v>
+        <v>184.352085</v>
       </c>
       <c r="I26">
-        <v>0.08026941139502627</v>
+        <v>0.305102250643841</v>
       </c>
       <c r="J26">
-        <v>0.08566696951956983</v>
+        <v>0.3209356870488675</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N26">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O26">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P26">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q26">
-        <v>2345.536771652614</v>
+        <v>12385.74125672507</v>
       </c>
       <c r="R26">
-        <v>14073.22062991568</v>
+        <v>74314.44754035043</v>
       </c>
       <c r="S26">
-        <v>0.01862864785102504</v>
+        <v>0.0858765398403578</v>
       </c>
       <c r="T26">
-        <v>0.01546801113585726</v>
+        <v>0.07289980308591884</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>14.25188766666667</v>
+        <v>61.450695</v>
       </c>
       <c r="H27">
-        <v>42.755663</v>
+        <v>184.352085</v>
       </c>
       <c r="I27">
-        <v>0.08026941139502627</v>
+        <v>0.305102250643841</v>
       </c>
       <c r="J27">
-        <v>0.08566696951956983</v>
+        <v>0.3209356870488675</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P27">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q27">
-        <v>1692.615861463154</v>
+        <v>7298.150496807959</v>
       </c>
       <c r="R27">
-        <v>15233.54275316839</v>
+        <v>65683.35447127164</v>
       </c>
       <c r="S27">
-        <v>0.0134430400799218</v>
+        <v>0.05060172814120071</v>
       </c>
       <c r="T27">
-        <v>0.01674333225783999</v>
+        <v>0.06443301088093818</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>14.25188766666667</v>
+        <v>61.450695</v>
       </c>
       <c r="H28">
-        <v>42.755663</v>
+        <v>184.352085</v>
       </c>
       <c r="I28">
-        <v>0.08026941139502627</v>
+        <v>0.305102250643841</v>
       </c>
       <c r="J28">
-        <v>0.08566696951956983</v>
+        <v>0.3209356870488675</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N28">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O28">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P28">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q28">
-        <v>1204.739955407497</v>
+        <v>4769.368960608344</v>
       </c>
       <c r="R28">
-        <v>10842.65959866747</v>
+        <v>42924.32064547511</v>
       </c>
       <c r="S28">
-        <v>0.009568247512714645</v>
+        <v>0.03306842078076359</v>
       </c>
       <c r="T28">
-        <v>0.01191727066780896</v>
+        <v>0.04210721637879272</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>14.25188766666667</v>
+        <v>61.450695</v>
       </c>
       <c r="H29">
-        <v>42.755663</v>
+        <v>184.352085</v>
       </c>
       <c r="I29">
-        <v>0.08026941139502627</v>
+        <v>0.305102250643841</v>
       </c>
       <c r="J29">
-        <v>0.08566696951956983</v>
+        <v>0.3209356870488675</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N29">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O29">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P29">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q29">
-        <v>1993.956869292288</v>
+        <v>10571.96168279534</v>
       </c>
       <c r="R29">
-        <v>11963.74121575373</v>
+        <v>63431.77009677204</v>
       </c>
       <c r="S29">
-        <v>0.01583634108707962</v>
+        <v>0.07330069874908436</v>
       </c>
       <c r="T29">
-        <v>0.0131494621748783</v>
+        <v>0.06222428750392284</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>14.25188766666667</v>
+        <v>61.450695</v>
       </c>
       <c r="H30">
-        <v>42.755663</v>
+        <v>184.352085</v>
       </c>
       <c r="I30">
-        <v>0.08026941139502627</v>
+        <v>0.305102250643841</v>
       </c>
       <c r="J30">
-        <v>0.08566696951956983</v>
+        <v>0.3209356870488675</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N30">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O30">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P30">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q30">
-        <v>1734.92908886243</v>
+        <v>3677.963322541304</v>
       </c>
       <c r="R30">
-        <v>15614.36179976187</v>
+        <v>33101.66990287174</v>
       </c>
       <c r="S30">
-        <v>0.01377909885426627</v>
+        <v>0.02550115953924808</v>
       </c>
       <c r="T30">
-        <v>0.01716189410721034</v>
+        <v>0.03247154890607503</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>14.25188766666667</v>
+        <v>61.450695</v>
       </c>
       <c r="H31">
-        <v>42.755663</v>
+        <v>184.352085</v>
       </c>
       <c r="I31">
-        <v>0.08026941139502627</v>
+        <v>0.305102250643841</v>
       </c>
       <c r="J31">
-        <v>0.08566696951956983</v>
+        <v>0.3209356870488675</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N31">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O31">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P31">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q31">
-        <v>1134.959074409513</v>
+        <v>5300.887341034229</v>
       </c>
       <c r="R31">
-        <v>10214.63166968562</v>
+        <v>47707.98606930806</v>
       </c>
       <c r="S31">
-        <v>0.009014036010018898</v>
+        <v>0.03675370359318648</v>
       </c>
       <c r="T31">
-        <v>0.01122699917597498</v>
+        <v>0.04679982029321988</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>65.40105833333332</v>
+        <v>37.45658766666667</v>
       </c>
       <c r="H32">
-        <v>196.203175</v>
+        <v>112.369763</v>
       </c>
       <c r="I32">
-        <v>0.3683515180453484</v>
+        <v>0.1859716834535124</v>
       </c>
       <c r="J32">
-        <v>0.3931205887830069</v>
+        <v>0.195622778510606</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N32">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O32">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P32">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q32">
-        <v>10763.52766831128</v>
+        <v>7549.590825606983</v>
       </c>
       <c r="R32">
-        <v>64581.16600986767</v>
+        <v>45297.5449536419</v>
       </c>
       <c r="S32">
-        <v>0.08548574850372544</v>
+        <v>0.05234508971851913</v>
       </c>
       <c r="T32">
-        <v>0.07098177604661519</v>
+        <v>0.044435264160486</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>65.40105833333332</v>
+        <v>37.45658766666667</v>
       </c>
       <c r="H33">
-        <v>196.203175</v>
+        <v>112.369763</v>
       </c>
       <c r="I33">
-        <v>0.3683515180453484</v>
+        <v>0.1859716834535124</v>
       </c>
       <c r="J33">
-        <v>0.3931205887830069</v>
+        <v>0.195622778510606</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>118.764328</v>
       </c>
       <c r="N33">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O33">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P33">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q33">
-        <v>7767.312743447131</v>
+        <v>4448.506463404755</v>
       </c>
       <c r="R33">
-        <v>69905.81469102418</v>
+        <v>40036.55817064279</v>
       </c>
       <c r="S33">
-        <v>0.06168930523502608</v>
+        <v>0.03084372058291153</v>
       </c>
       <c r="T33">
-        <v>0.07683414824062308</v>
+        <v>0.03927442514180106</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>65.40105833333332</v>
+        <v>37.45658766666667</v>
       </c>
       <c r="H34">
-        <v>196.203175</v>
+        <v>112.369763</v>
       </c>
       <c r="I34">
-        <v>0.3683515180453484</v>
+        <v>0.1859716834535124</v>
       </c>
       <c r="J34">
-        <v>0.3931205887830069</v>
+        <v>0.195622778510606</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N34">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O34">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P34">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q34">
-        <v>5528.479450787824</v>
+        <v>2907.115803779036</v>
       </c>
       <c r="R34">
-        <v>49756.31505709042</v>
+        <v>26164.04223401132</v>
       </c>
       <c r="S34">
-        <v>0.04390811437494178</v>
+        <v>0.02015648809135346</v>
       </c>
       <c r="T34">
-        <v>0.05468764084791502</v>
+        <v>0.02566598541630086</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>65.40105833333332</v>
+        <v>37.45658766666667</v>
       </c>
       <c r="H35">
-        <v>196.203175</v>
+        <v>112.369763</v>
       </c>
       <c r="I35">
-        <v>0.3683515180453484</v>
+        <v>0.1859716834535124</v>
       </c>
       <c r="J35">
-        <v>0.3931205887830069</v>
+        <v>0.195622778510606</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N35">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O35">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P35">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q35">
-        <v>9150.148567879927</v>
+        <v>6444.021659645422</v>
       </c>
       <c r="R35">
-        <v>54900.89140727957</v>
+        <v>38664.12995787253</v>
       </c>
       <c r="S35">
-        <v>0.07267202011738125</v>
+        <v>0.04467962565310291</v>
       </c>
       <c r="T35">
-        <v>0.06034209382400472</v>
+        <v>0.03792812237333618</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>65.40105833333332</v>
+        <v>37.45658766666667</v>
       </c>
       <c r="H36">
-        <v>196.203175</v>
+        <v>112.369763</v>
       </c>
       <c r="I36">
-        <v>0.3683515180453484</v>
+        <v>0.1859716834535124</v>
       </c>
       <c r="J36">
-        <v>0.3931205887830069</v>
+        <v>0.195622778510606</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N36">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O36">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P36">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q36">
-        <v>7961.485607992231</v>
+        <v>2241.861635992123</v>
       </c>
       <c r="R36">
-        <v>71653.37047193009</v>
+        <v>20176.75472392911</v>
       </c>
       <c r="S36">
-        <v>0.06323145880923199</v>
+        <v>0.01554394816663178</v>
       </c>
       <c r="T36">
-        <v>0.07875490348140454</v>
+        <v>0.01979267147870099</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>65.40105833333332</v>
+        <v>37.45658766666667</v>
       </c>
       <c r="H37">
-        <v>196.203175</v>
+        <v>112.369763</v>
       </c>
       <c r="I37">
-        <v>0.3683515180453484</v>
+        <v>0.1859716834535124</v>
       </c>
       <c r="J37">
-        <v>0.3931205887830069</v>
+        <v>0.195622778510606</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N37">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O37">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P37">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q37">
-        <v>5208.259170117597</v>
+        <v>3231.096920882216</v>
       </c>
       <c r="R37">
-        <v>46874.33253105838</v>
+        <v>29079.87228793994</v>
       </c>
       <c r="S37">
-        <v>0.04136487100504183</v>
+        <v>0.02240281124099363</v>
       </c>
       <c r="T37">
-        <v>0.05152002634244437</v>
+        <v>0.02852630993998093</v>
       </c>
     </row>
   </sheetData>
